--- a/data/outputs/management/33.xlsx
+++ b/data/outputs/management/33.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ18"/>
+  <dimension ref="A1:BR18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -927,6 +932,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1144,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1357,6 +1364,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1560,6 +1568,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1775,6 +1784,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1982,6 +1992,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2189,6 +2200,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2400,6 +2412,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4330845</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2603,6 +2620,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2814,6 +2832,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3029,6 +3048,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3232,6 +3252,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3435,6 +3456,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>47172309</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3614,6 +3640,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3833,6 +3860,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4036,6 +4064,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4239,6 +4268,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>6934685</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
